--- a/BackEnd/DocumentManagement/DocumentManagement/FilesUpload/DanhSachVanBan.xlsx
+++ b/BackEnd/DocumentManagement/DocumentManagement/FilesUpload/DanhSachVanBan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Thống kê danh sách văn bản</t>
   </si>
@@ -41,7 +41,34 @@
     <t>Tình trạng</t>
   </si>
   <si>
+    <t>TT duyệt</t>
+  </si>
+  <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>TaiLieu_01</t>
+  </si>
+  <si>
+    <t>HoSo_1002</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Bình thường</t>
+  </si>
+  <si>
+    <t>Chưa duyệt</t>
   </si>
 </sst>
 </file>
@@ -82,15 +109,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -101,8 +131,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" state="frozen" activePane="bottomLeft"/>
@@ -120,6 +150,7 @@
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,6 +165,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -162,6 +194,9 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -174,61 +209,39 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
